--- a/rms-facade/src/main/resources/static/partials/user/user-template.xlsx
+++ b/rms-facade/src/main/resources/static/partials/user/user-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">状态：1/0  1:启用，0:停用</t>
+          <t xml:space="preserve">状态：ENABLED/DISABLED
+解释：ENABLED:启用，DISABLED:停用</t>
         </r>
       </text>
     </comment>
@@ -175,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>realName</t>
   </si>
@@ -241,6 +242,9 @@
   </si>
   <si>
     <t>北京懋隆</t>
+  </si>
+  <si>
+    <t>ENABLED</t>
   </si>
 </sst>
 </file>
@@ -249,9 +253,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1269,8 +1273,8 @@
   <sheetPr/>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1371,8 +1375,8 @@
       <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="N2">
-        <v>1</v>
+      <c r="N2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
